--- a/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,30 +151,30 @@
     <t>Turkey Süper Lig</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Romania Liga I</t>
+  </si>
+  <si>
     <t>Portugal LigaPro</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
@@ -220,18 +220,18 @@
     <t>Gazişehir Gaziantep</t>
   </si>
   <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
+    <t>Oţelul Galaţi</t>
+  </si>
+  <si>
     <t>CF Os Belenenses</t>
   </si>
   <si>
-    <t>Oţelul Galaţi</t>
-  </si>
-  <si>
-    <t>Randers</t>
-  </si>
-  <si>
-    <t>Warta Poznań</t>
-  </si>
-  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>Al Ittihad</t>
   </si>
   <si>
+    <t>SD Amorebieta</t>
+  </si>
+  <si>
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>SD Amorebieta</t>
-  </si>
-  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>Beşiktaş</t>
   </si>
   <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>ŁKS Łódź</t>
+  </si>
+  <si>
+    <t>CSM Iaşi</t>
+  </si>
+  <si>
     <t>Leixões</t>
   </si>
   <si>
-    <t>CSM Iaşi</t>
-  </si>
-  <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
-    <t>ŁKS Łódź</t>
-  </si>
-  <si>
     <t>AZ II</t>
   </si>
   <si>
@@ -316,10 +316,10 @@
     <t>Coca-Cola</t>
   </si>
   <si>
+    <t>Leganés</t>
+  </si>
+  <si>
     <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Leganés</t>
   </si>
   <si>
     <t>Laval</t>
@@ -865,13 +865,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K2">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="L2">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="M2">
         <v>1.52</v>
@@ -892,10 +892,10 @@
         <v>2.6</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -996,13 +996,13 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="K3">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1023,10 +1023,10 @@
         <v>3.5</v>
       </c>
       <c r="S3">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="T3">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1109,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -1118,115 +1118,115 @@
         <v>89</v>
       </c>
       <c r="G4">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="I4">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="J4">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="L4">
-        <v>2.46</v>
+        <v>1.88</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="P4">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q4">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="R4">
+        <v>3.65</v>
+      </c>
+      <c r="S4">
+        <v>1.84</v>
+      </c>
+      <c r="T4">
+        <v>1.93</v>
+      </c>
+      <c r="U4">
+        <v>1.75</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1.78</v>
+      </c>
+      <c r="X4">
+        <v>1.3</v>
+      </c>
+      <c r="Y4">
+        <v>1.3</v>
+      </c>
+      <c r="Z4">
+        <v>1.3</v>
+      </c>
+      <c r="AA4">
+        <v>1.9</v>
+      </c>
+      <c r="AB4">
+        <v>1.28</v>
+      </c>
+      <c r="AC4">
+        <v>1.52</v>
+      </c>
+      <c r="AD4">
+        <v>2.8</v>
+      </c>
+      <c r="AE4">
         <v>2.62</v>
       </c>
-      <c r="S4">
-        <v>2.29</v>
-      </c>
-      <c r="T4">
-        <v>1.51</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.73</v>
-      </c>
-      <c r="W4">
-        <v>1.52</v>
-      </c>
-      <c r="X4">
-        <v>1.33</v>
-      </c>
-      <c r="Y4">
-        <v>1.39</v>
-      </c>
-      <c r="Z4">
-        <v>0.83</v>
-      </c>
-      <c r="AA4">
-        <v>1.25</v>
-      </c>
-      <c r="AB4">
-        <v>1.35</v>
-      </c>
-      <c r="AC4">
-        <v>1.24</v>
-      </c>
-      <c r="AD4">
-        <v>2.59</v>
-      </c>
-      <c r="AE4">
-        <v>1.87</v>
-      </c>
       <c r="AF4">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AG4">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="AH4">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AI4">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="AJ4">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AK4">
-        <v>2.93</v>
+        <v>2.08</v>
       </c>
       <c r="AL4">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="AM4">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="AN4">
-        <v>1.99</v>
+        <v>2.8</v>
       </c>
       <c r="AO4">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="AP4">
-        <v>2.57</v>
+        <v>3.85</v>
       </c>
       <c r="AQ4">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1249,76 +1249,76 @@
         <v>90</v>
       </c>
       <c r="G5">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H5">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="J5">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="K5">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
       <c r="L5">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="M5">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O5">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="P5">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q5">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R5">
-        <v>2.45</v>
+        <v>2.92</v>
       </c>
       <c r="S5">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="T5">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="U5">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="W5">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X5">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Y5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z5">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AA5">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AC5">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AD5">
-        <v>2.83</v>
+        <v>2.29</v>
       </c>
       <c r="AE5">
         <v>1.75</v>
@@ -1330,34 +1330,34 @@
         <v>2.44</v>
       </c>
       <c r="AH5">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AI5">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AK5">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AL5">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="AM5">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1371,7 +1371,7 @@
         <v>60</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
@@ -1380,115 +1380,115 @@
         <v>91</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="H6">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="I6">
-        <v>2.63</v>
+        <v>4.47</v>
       </c>
       <c r="J6">
-        <v>4.02</v>
+        <v>2.11</v>
       </c>
       <c r="K6">
-        <v>3.62</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O6">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Q6">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="R6">
-        <v>3.65</v>
+        <v>2.45</v>
       </c>
       <c r="S6">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="T6">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="U6">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W6">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="X6">
         <v>1.3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z6">
-        <v>1.3</v>
+        <v>0.93</v>
       </c>
       <c r="AA6">
-        <v>1.9</v>
+        <v>0.93</v>
       </c>
       <c r="AB6">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AC6">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AD6">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AE6">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="AF6">
         <v>8</v>
       </c>
       <c r="AG6">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="AH6">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AI6">
-        <v>2.8</v>
+        <v>2.59</v>
       </c>
       <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>1.8</v>
+      </c>
+      <c r="AL6">
+        <v>2.2</v>
+      </c>
+      <c r="AM6">
         <v>1.65</v>
       </c>
-      <c r="AK6">
-        <v>2.08</v>
-      </c>
-      <c r="AL6">
-        <v>1.92</v>
-      </c>
-      <c r="AM6">
-        <v>1.88</v>
-      </c>
       <c r="AN6">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AO6">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AP6">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="AQ6">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1502,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
@@ -1511,115 +1511,115 @@
         <v>92</v>
       </c>
       <c r="G7">
-        <v>2.6</v>
+        <v>3.72</v>
       </c>
       <c r="H7">
+        <v>1.98</v>
+      </c>
+      <c r="I7">
+        <v>3.12</v>
+      </c>
+      <c r="J7">
+        <v>2.95</v>
+      </c>
+      <c r="K7">
+        <v>3.2</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
+        <v>1.1</v>
+      </c>
+      <c r="P7">
+        <v>6.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.44</v>
+      </c>
+      <c r="R7">
+        <v>2.62</v>
+      </c>
+      <c r="S7">
+        <v>2.25</v>
+      </c>
+      <c r="T7">
+        <v>1.6</v>
+      </c>
+      <c r="U7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>4.4</v>
-      </c>
-      <c r="J7">
-        <v>2.03</v>
-      </c>
-      <c r="K7">
-        <v>2.97</v>
-      </c>
-      <c r="L7">
-        <v>3.33</v>
-      </c>
-      <c r="M7">
-        <v>1.48</v>
-      </c>
-      <c r="N7">
-        <v>2.45</v>
-      </c>
-      <c r="O7">
-        <v>1.08</v>
-      </c>
-      <c r="P7">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>1.41</v>
-      </c>
-      <c r="R7">
-        <v>2.92</v>
-      </c>
-      <c r="S7">
-        <v>2.11</v>
-      </c>
-      <c r="T7">
-        <v>1.64</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
       <c r="V7">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W7">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="X7">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Y7">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="Z7">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB7">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AC7">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AD7">
-        <v>2.29</v>
+        <v>2.59</v>
       </c>
       <c r="AE7">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AF7">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AG7">
-        <v>2.44</v>
+        <v>2.17</v>
       </c>
       <c r="AH7">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AI7">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="AJ7">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AK7">
-        <v>2.45</v>
+        <v>2.93</v>
       </c>
       <c r="AL7">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="AM7">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="AN7">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="AO7">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AP7">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="AQ7">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1660,22 +1660,22 @@
         <v>3.34</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S8">
         <v>1.7</v>
@@ -1714,43 +1714,43 @@
         <v>2.86</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1773,13 +1773,13 @@
         <v>94</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="J9">
         <v>5.12</v>
@@ -1791,43 +1791,43 @@
         <v>1.58</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Z9">
         <v>1.07</v>
@@ -1845,13 +1845,13 @@
         <v>3.17</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1860,28 +1860,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1922,28 +1922,28 @@
         <v>5.2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="U10">
         <v>1.47</v>
@@ -1976,13 +1976,13 @@
         <v>3.21</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM10">
         <v>2.39</v>
@@ -2035,13 +2035,13 @@
         <v>96</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J11">
         <v>1.68</v>
@@ -2053,22 +2053,22 @@
         <v>4.88</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S11">
         <v>1.7</v>
@@ -2077,19 +2077,19 @@
         <v>2</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Z11">
         <v>0.93</v>
@@ -2107,43 +2107,43 @@
         <v>2.84</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2166,13 +2166,13 @@
         <v>97</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>1.5</v>
@@ -2184,43 +2184,43 @@
         <v>5.51</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z12">
         <v>2</v>
@@ -2297,13 +2297,13 @@
         <v>98</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>1.35</v>
@@ -2315,22 +2315,22 @@
         <v>8.01</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="S13">
         <v>1.49</v>
@@ -2339,10 +2339,10 @@
         <v>2.32</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W13">
         <v>1.03</v>
@@ -2369,13 +2369,13 @@
         <v>3</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2384,28 +2384,28 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2428,22 +2428,22 @@
         <v>99</v>
       </c>
       <c r="G14">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="I14">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
         <v>2.65</v>
       </c>
       <c r="K14">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="L14">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M14">
         <v>1.57</v>
@@ -2461,19 +2461,19 @@
         <v>1.5</v>
       </c>
       <c r="R14">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T14">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="U14">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V14">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W14">
         <v>1.4</v>
@@ -2550,7 +2550,7 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -2559,94 +2559,94 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I15">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J15">
-        <v>2.19</v>
+        <v>3.15</v>
       </c>
       <c r="K15">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="M15">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="N15">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P15">
-        <v>6.2</v>
+        <v>6.75</v>
       </c>
       <c r="Q15">
+        <v>1.48</v>
+      </c>
+      <c r="R15">
+        <v>2.45</v>
+      </c>
+      <c r="S15">
+        <v>2.41</v>
+      </c>
+      <c r="T15">
+        <v>1.44</v>
+      </c>
+      <c r="U15">
+        <v>2.25</v>
+      </c>
+      <c r="V15">
+        <v>1.57</v>
+      </c>
+      <c r="W15">
+        <v>1.52</v>
+      </c>
+      <c r="X15">
         <v>1.42</v>
       </c>
-      <c r="R15">
-        <v>2.6</v>
-      </c>
-      <c r="S15">
-        <v>2.25</v>
-      </c>
-      <c r="T15">
-        <v>1.57</v>
-      </c>
-      <c r="U15">
-        <v>2.1</v>
-      </c>
-      <c r="V15">
-        <v>1.67</v>
-      </c>
-      <c r="W15">
-        <v>1.28</v>
-      </c>
-      <c r="X15">
-        <v>1.3</v>
-      </c>
       <c r="Y15">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AA15">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AB15">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AC15">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="AD15">
-        <v>2.62</v>
+        <v>2.11</v>
       </c>
       <c r="AE15">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="AF15">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG15">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="AH15">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AI15">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AJ15">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AK15">
         <v>2.04</v>
@@ -2655,19 +2655,19 @@
         <v>2.19</v>
       </c>
       <c r="AM15">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AN15">
         <v>2.93</v>
       </c>
       <c r="AO15">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AP15">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AQ15">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2681,7 +2681,7 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
@@ -2690,94 +2690,94 @@
         <v>101</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I16">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
-        <v>2.94</v>
+        <v>2.12</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="L16">
-        <v>2.31</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O16">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P16">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="Q16">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="R16">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="S16">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="U16">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V16">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W16">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="X16">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="Y16">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="Z16">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AA16">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AB16">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="AC16">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AD16">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="AE16">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="AF16">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG16">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="AH16">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AI16">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="AJ16">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AK16">
         <v>2.04</v>
@@ -2786,19 +2786,19 @@
         <v>2.19</v>
       </c>
       <c r="AM16">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AN16">
         <v>2.93</v>
       </c>
       <c r="AO16">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AP16">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2830,13 +2830,13 @@
         <v>4.19</v>
       </c>
       <c r="J17">
-        <v>2.13</v>
+        <v>2.27</v>
       </c>
       <c r="K17">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
         <v>1.54</v>
@@ -2857,10 +2857,10 @@
         <v>2.4</v>
       </c>
       <c r="S17">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="T17">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U17">
         <v>2.06</v>
@@ -2964,10 +2964,10 @@
         <v>1.84</v>
       </c>
       <c r="K18">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
         <v>1.44</v>
@@ -2988,10 +2988,10 @@
         <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="T18">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -3092,13 +3092,13 @@
         <v>3.75</v>
       </c>
       <c r="J19">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="K19">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L19">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
         <v>1.25</v>
@@ -3223,13 +3223,13 @@
         <v>3</v>
       </c>
       <c r="J20">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="K20">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="M20">
         <v>1.4</v>
@@ -3250,10 +3250,10 @@
         <v>3.4</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U20">
         <v>1.75</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>45362</v>
@@ -3354,13 +3354,13 @@
         <v>6.77</v>
       </c>
       <c r="J21">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L21">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>1.4</v>
@@ -3381,10 +3381,10 @@
         <v>3.25</v>
       </c>
       <c r="S21">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U21">
         <v>2.1</v>
@@ -3485,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="K22">
-        <v>3.83</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>3.68</v>
+        <v>4.1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="T22">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U22">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>League</t>
   </si>
@@ -259,6 +259,9 @@
     <t>Sampdoria</t>
   </si>
   <si>
+    <t>Masr</t>
+  </si>
+  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
   </si>
   <si>
     <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
   </si>
   <si>
     <t>Laval</t>
@@ -699,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +859,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>3.6</v>
@@ -865,13 +871,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="L2">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="M2">
         <v>1.52</v>
@@ -892,10 +898,10 @@
         <v>2.6</v>
       </c>
       <c r="S2">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -984,7 +990,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -996,13 +1002,13 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="L3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1115,7 +1121,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1127,13 +1133,13 @@
         <v>2.63</v>
       </c>
       <c r="J4">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="K4">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1154,10 +1160,10 @@
         <v>3.65</v>
       </c>
       <c r="S4">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="T4">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="U4">
         <v>1.75</v>
@@ -1246,7 +1252,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <v>2.6</v>
@@ -1258,13 +1264,13 @@
         <v>4.4</v>
       </c>
       <c r="J5">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="K5">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>3.85</v>
+        <v>3.67</v>
       </c>
       <c r="M5">
         <v>1.48</v>
@@ -1285,10 +1291,10 @@
         <v>2.92</v>
       </c>
       <c r="S5">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="T5">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1377,7 +1383,7 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>2.66</v>
@@ -1389,13 +1395,13 @@
         <v>4.47</v>
       </c>
       <c r="J6">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
         <v>1.46</v>
@@ -1416,10 +1422,10 @@
         <v>2.45</v>
       </c>
       <c r="S6">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="T6">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="U6">
         <v>1.92</v>
@@ -1508,7 +1514,7 @@
         <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>3.72</v>
@@ -1520,13 +1526,13 @@
         <v>3.12</v>
       </c>
       <c r="J7">
+        <v>2.66</v>
+      </c>
+      <c r="K7">
         <v>2.95</v>
       </c>
-      <c r="K7">
-        <v>3.2</v>
-      </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="M7">
         <v>1.5</v>
@@ -1547,7 +1553,7 @@
         <v>2.62</v>
       </c>
       <c r="S7">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="T7">
         <v>1.6</v>
@@ -1639,7 +1645,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8">
         <v>2.55</v>
@@ -1770,7 +1776,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>4.75</v>
@@ -1901,7 +1907,7 @@
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1.93</v>
@@ -2032,7 +2038,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>2.2</v>
@@ -2163,7 +2169,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>1.77</v>
@@ -2294,7 +2300,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>1.8</v>
@@ -2425,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>3.5</v>
@@ -2437,13 +2443,13 @@
         <v>3.5</v>
       </c>
       <c r="J14">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="K14">
         <v>2.75</v>
       </c>
       <c r="L14">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="M14">
         <v>1.57</v>
@@ -2461,13 +2467,13 @@
         <v>1.5</v>
       </c>
       <c r="R14">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="S14">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T14">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U14">
         <v>2.2</v>
@@ -2556,7 +2562,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -2568,13 +2574,13 @@
         <v>3.25</v>
       </c>
       <c r="J15">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="K15">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="M15">
         <v>1.62</v>
@@ -2595,10 +2601,10 @@
         <v>2.45</v>
       </c>
       <c r="S15">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="T15">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="U15">
         <v>2.25</v>
@@ -2687,7 +2693,7 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2699,13 +2705,13 @@
         <v>4.33</v>
       </c>
       <c r="J16">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="K16">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="M16">
         <v>1.53</v>
@@ -2726,7 +2732,7 @@
         <v>2.6</v>
       </c>
       <c r="S16">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T16">
         <v>1.54</v>
@@ -2803,138 +2809,138 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>45362</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17">
-        <v>3.12</v>
+        <v>3.85</v>
       </c>
       <c r="H17">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="I17">
-        <v>4.19</v>
+        <v>3.11</v>
       </c>
       <c r="J17">
-        <v>2.27</v>
+        <v>2.9</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M17">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="N17">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="O17">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P17">
-        <v>6.89</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="R17">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S17">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="T17">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="U17">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="X17">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Y17">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="Z17">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AB17">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AC17">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AD17">
+        <v>3.01</v>
+      </c>
+      <c r="AE17">
+        <v>1.98</v>
+      </c>
+      <c r="AF17">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>2.04</v>
+      </c>
+      <c r="AH17">
+        <v>1.34</v>
+      </c>
+      <c r="AI17">
         <v>2.88</v>
       </c>
-      <c r="AE17">
-        <v>1.82</v>
-      </c>
-      <c r="AF17">
-        <v>7.5</v>
-      </c>
-      <c r="AG17">
-        <v>2.34</v>
-      </c>
-      <c r="AH17">
-        <v>1.36</v>
-      </c>
-      <c r="AI17">
-        <v>3</v>
-      </c>
       <c r="AJ17">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AK17">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AL17">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AM17">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AN17">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AO17">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AP17">
-        <v>4.1</v>
+        <v>3.86</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>45362</v>
@@ -2949,129 +2955,129 @@
         <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="H18">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="I18">
-        <v>4.75</v>
+        <v>4.19</v>
       </c>
       <c r="J18">
-        <v>1.84</v>
+        <v>2.13</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>2.91</v>
       </c>
       <c r="L18">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="M18">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="N18">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="O18">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P18">
-        <v>8.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="Q18">
+        <v>1.57</v>
+      </c>
+      <c r="R18">
+        <v>2.4</v>
+      </c>
+      <c r="S18">
+        <v>2.35</v>
+      </c>
+      <c r="T18">
+        <v>1.53</v>
+      </c>
+      <c r="U18">
+        <v>2.06</v>
+      </c>
+      <c r="V18">
+        <v>1.72</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
         <v>1.36</v>
       </c>
-      <c r="R18">
+      <c r="Y18">
+        <v>1.64</v>
+      </c>
+      <c r="Z18">
+        <v>1.77</v>
+      </c>
+      <c r="AA18">
+        <v>1.92</v>
+      </c>
+      <c r="AB18">
+        <v>1.64</v>
+      </c>
+      <c r="AC18">
+        <v>1.24</v>
+      </c>
+      <c r="AD18">
         <v>2.88</v>
       </c>
-      <c r="S18">
-        <v>2.17</v>
-      </c>
-      <c r="T18">
-        <v>1.59</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.75</v>
-      </c>
-      <c r="W18">
-        <v>1.27</v>
-      </c>
-      <c r="X18">
-        <v>1.31</v>
-      </c>
-      <c r="Y18">
-        <v>1.8</v>
-      </c>
-      <c r="Z18">
-        <v>1.62</v>
-      </c>
-      <c r="AA18">
-        <v>0.92</v>
-      </c>
-      <c r="AB18">
-        <v>1.2</v>
-      </c>
-      <c r="AC18">
-        <v>1.08</v>
-      </c>
-      <c r="AD18">
-        <v>2.28</v>
-      </c>
       <c r="AE18">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AF18">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG18">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="AH18">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI18">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AJ18">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AK18">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AL18">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AM18">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AN18">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="AO18">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AP18">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>45362</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>28</v>
@@ -3080,123 +3086,123 @@
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H19">
+        <v>2.05</v>
+      </c>
+      <c r="I19">
+        <v>4.75</v>
+      </c>
+      <c r="J19">
+        <v>1.9</v>
+      </c>
+      <c r="K19">
+        <v>3.3</v>
+      </c>
+      <c r="L19">
+        <v>4.43</v>
+      </c>
+      <c r="M19">
+        <v>1.44</v>
+      </c>
+      <c r="N19">
+        <v>2.63</v>
+      </c>
+      <c r="O19">
+        <v>1.1</v>
+      </c>
+      <c r="P19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>1.36</v>
+      </c>
+      <c r="R19">
+        <v>2.88</v>
+      </c>
+      <c r="S19">
+        <v>2.16</v>
+      </c>
+      <c r="T19">
+        <v>1.65</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.75</v>
+      </c>
+      <c r="W19">
+        <v>1.27</v>
+      </c>
+      <c r="X19">
+        <v>1.31</v>
+      </c>
+      <c r="Y19">
+        <v>1.8</v>
+      </c>
+      <c r="Z19">
+        <v>1.62</v>
+      </c>
+      <c r="AA19">
+        <v>0.92</v>
+      </c>
+      <c r="AB19">
+        <v>1.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.08</v>
+      </c>
+      <c r="AD19">
+        <v>2.28</v>
+      </c>
+      <c r="AE19">
+        <v>1.55</v>
+      </c>
+      <c r="AF19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>2.8</v>
+      </c>
+      <c r="AH19">
+        <v>1.33</v>
+      </c>
+      <c r="AI19">
+        <v>2.85</v>
+      </c>
+      <c r="AJ19">
+        <v>1.6</v>
+      </c>
+      <c r="AK19">
+        <v>2.14</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>1.7</v>
+      </c>
+      <c r="AN19">
         <v>2.5</v>
       </c>
-      <c r="I19">
-        <v>3.75</v>
-      </c>
-      <c r="J19">
-        <v>1.84</v>
-      </c>
-      <c r="K19">
-        <v>4.1</v>
-      </c>
-      <c r="L19">
-        <v>3.8</v>
-      </c>
-      <c r="M19">
-        <v>1.25</v>
-      </c>
-      <c r="N19">
-        <v>3.75</v>
-      </c>
-      <c r="O19">
-        <v>1.03</v>
-      </c>
-      <c r="P19">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>1.12</v>
-      </c>
-      <c r="R19">
-        <v>5.5</v>
-      </c>
-      <c r="S19">
-        <v>1.44</v>
-      </c>
-      <c r="T19">
-        <v>2.53</v>
-      </c>
-      <c r="U19">
-        <v>1.44</v>
-      </c>
-      <c r="V19">
-        <v>2.63</v>
-      </c>
-      <c r="W19">
-        <v>1.32</v>
-      </c>
-      <c r="X19">
-        <v>1.25</v>
-      </c>
-      <c r="Y19">
-        <v>1.85</v>
-      </c>
-      <c r="Z19">
-        <v>1.5</v>
-      </c>
-      <c r="AA19">
-        <v>0.85</v>
-      </c>
-      <c r="AB19">
-        <v>1.56</v>
-      </c>
-      <c r="AC19">
-        <v>1.21</v>
-      </c>
-      <c r="AD19">
-        <v>2.77</v>
-      </c>
-      <c r="AE19">
-        <v>1.6</v>
-      </c>
-      <c r="AF19">
-        <v>9.5</v>
-      </c>
-      <c r="AG19">
-        <v>2.9</v>
-      </c>
-      <c r="AH19">
-        <v>1.2</v>
-      </c>
-      <c r="AI19">
-        <v>4.3</v>
-      </c>
-      <c r="AJ19">
-        <v>1.36</v>
-      </c>
-      <c r="AK19">
-        <v>2.95</v>
-      </c>
-      <c r="AL19">
-        <v>1.62</v>
-      </c>
-      <c r="AM19">
-        <v>2.2</v>
-      </c>
-      <c r="AN19">
-        <v>1.97</v>
-      </c>
       <c r="AO19">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="AQ19">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2">
         <v>45362</v>
@@ -3211,156 +3217,156 @@
         <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H20">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J20">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L20">
-        <v>2.55</v>
+        <v>3.53</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O20">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q20">
+        <v>1.12</v>
+      </c>
+      <c r="R20">
+        <v>5.5</v>
+      </c>
+      <c r="S20">
+        <v>1.44</v>
+      </c>
+      <c r="T20">
+        <v>2.67</v>
+      </c>
+      <c r="U20">
+        <v>1.44</v>
+      </c>
+      <c r="V20">
+        <v>2.63</v>
+      </c>
+      <c r="W20">
         <v>1.32</v>
       </c>
-      <c r="R20">
-        <v>3.4</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>1.86</v>
-      </c>
-      <c r="U20">
-        <v>1.75</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>1.55</v>
-      </c>
       <c r="X20">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y20">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="Z20">
-        <v>0.54</v>
+        <v>1.5</v>
       </c>
       <c r="AA20">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="AB20">
         <v>1.56</v>
       </c>
       <c r="AC20">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AD20">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AE20">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
       <c r="AF20">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AG20">
-        <v>2.03</v>
+        <v>2.9</v>
       </c>
       <c r="AH20">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AI20">
-        <v>3.74</v>
+        <v>4.3</v>
       </c>
       <c r="AJ20">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AK20">
-        <v>2.66</v>
+        <v>2.95</v>
       </c>
       <c r="AL20">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AM20">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="AN20">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="AO20">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AP20">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <v>45362</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21">
-        <v>2.01</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="I21">
-        <v>6.77</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>1.56</v>
+        <v>2.9</v>
       </c>
       <c r="K21">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>2.43</v>
       </c>
       <c r="M21">
         <v>1.4</v>
@@ -3372,93 +3378,93 @@
         <v>1.07</v>
       </c>
       <c r="P21">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Q21">
+        <v>1.32</v>
+      </c>
+      <c r="R21">
+        <v>3.4</v>
+      </c>
+      <c r="S21">
+        <v>1.87</v>
+      </c>
+      <c r="T21">
+        <v>1.87</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>1.55</v>
+      </c>
+      <c r="X21">
+        <v>1.32</v>
+      </c>
+      <c r="Y21">
+        <v>1.38</v>
+      </c>
+      <c r="Z21">
+        <v>0.54</v>
+      </c>
+      <c r="AA21">
+        <v>0.77</v>
+      </c>
+      <c r="AB21">
+        <v>1.56</v>
+      </c>
+      <c r="AC21">
+        <v>1.31</v>
+      </c>
+      <c r="AD21">
+        <v>2.87</v>
+      </c>
+      <c r="AE21">
+        <v>2.07</v>
+      </c>
+      <c r="AF21">
+        <v>8.9</v>
+      </c>
+      <c r="AG21">
+        <v>2.03</v>
+      </c>
+      <c r="AH21">
+        <v>1.21</v>
+      </c>
+      <c r="AI21">
+        <v>3.74</v>
+      </c>
+      <c r="AJ21">
+        <v>1.43</v>
+      </c>
+      <c r="AK21">
+        <v>2.66</v>
+      </c>
+      <c r="AL21">
+        <v>1.76</v>
+      </c>
+      <c r="AM21">
+        <v>2.02</v>
+      </c>
+      <c r="AN21">
+        <v>2.22</v>
+      </c>
+      <c r="AO21">
+        <v>1.6</v>
+      </c>
+      <c r="AP21">
+        <v>2.91</v>
+      </c>
+      <c r="AQ21">
         <v>1.33</v>
-      </c>
-      <c r="R21">
-        <v>3.25</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>1.85</v>
-      </c>
-      <c r="U21">
-        <v>2.1</v>
-      </c>
-      <c r="V21">
-        <v>1.67</v>
-      </c>
-      <c r="W21">
-        <v>1.08</v>
-      </c>
-      <c r="X21">
-        <v>1.24</v>
-      </c>
-      <c r="Y21">
-        <v>2.61</v>
-      </c>
-      <c r="Z21">
-        <v>2.08</v>
-      </c>
-      <c r="AA21">
-        <v>0.42</v>
-      </c>
-      <c r="AB21">
-        <v>1.62</v>
-      </c>
-      <c r="AC21">
-        <v>1.22</v>
-      </c>
-      <c r="AD21">
-        <v>2.84</v>
-      </c>
-      <c r="AE21">
-        <v>1.4</v>
-      </c>
-      <c r="AF21">
-        <v>10.25</v>
-      </c>
-      <c r="AG21">
-        <v>3.4</v>
-      </c>
-      <c r="AH21">
-        <v>1.17</v>
-      </c>
-      <c r="AI21">
-        <v>4.5</v>
-      </c>
-      <c r="AJ21">
-        <v>1.3</v>
-      </c>
-      <c r="AK21">
-        <v>3.2</v>
-      </c>
-      <c r="AL21">
-        <v>1.5</v>
-      </c>
-      <c r="AM21">
-        <v>2.4</v>
-      </c>
-      <c r="AN21">
-        <v>1.98</v>
-      </c>
-      <c r="AO21">
-        <v>1.82</v>
-      </c>
-      <c r="AP21">
-        <v>2.23</v>
-      </c>
-      <c r="AQ21">
-        <v>1.64</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>45362</v>
@@ -3473,117 +3479,248 @@
         <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.77</v>
       </c>
       <c r="J22">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="K22">
+        <v>3.75</v>
+      </c>
+      <c r="L22">
+        <v>5.9</v>
+      </c>
+      <c r="M22">
+        <v>1.4</v>
+      </c>
+      <c r="N22">
+        <v>2.75</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>7.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.33</v>
+      </c>
+      <c r="R22">
+        <v>3.25</v>
+      </c>
+      <c r="S22">
+        <v>2.04</v>
+      </c>
+      <c r="T22">
+        <v>1.82</v>
+      </c>
+      <c r="U22">
+        <v>2.1</v>
+      </c>
+      <c r="V22">
+        <v>1.67</v>
+      </c>
+      <c r="W22">
+        <v>1.08</v>
+      </c>
+      <c r="X22">
+        <v>1.24</v>
+      </c>
+      <c r="Y22">
+        <v>2.61</v>
+      </c>
+      <c r="Z22">
+        <v>2.08</v>
+      </c>
+      <c r="AA22">
+        <v>0.42</v>
+      </c>
+      <c r="AB22">
+        <v>1.62</v>
+      </c>
+      <c r="AC22">
+        <v>1.22</v>
+      </c>
+      <c r="AD22">
+        <v>2.84</v>
+      </c>
+      <c r="AE22">
+        <v>1.4</v>
+      </c>
+      <c r="AF22">
+        <v>10.25</v>
+      </c>
+      <c r="AG22">
+        <v>3.4</v>
+      </c>
+      <c r="AH22">
+        <v>1.17</v>
+      </c>
+      <c r="AI22">
+        <v>4.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1.3</v>
+      </c>
+      <c r="AK22">
+        <v>3.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.5</v>
+      </c>
+      <c r="AM22">
+        <v>2.4</v>
+      </c>
+      <c r="AN22">
+        <v>1.98</v>
+      </c>
+      <c r="AO22">
+        <v>1.82</v>
+      </c>
+      <c r="AP22">
+        <v>2.23</v>
+      </c>
+      <c r="AQ22">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45362</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.9</v>
+      </c>
+      <c r="K23">
+        <v>3.33</v>
+      </c>
+      <c r="L23">
         <v>3.65</v>
       </c>
-      <c r="L22">
-        <v>4.1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>1.87</v>
-      </c>
-      <c r="T22">
-        <v>1.94</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.88</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1.67</v>
       </c>
-      <c r="AA22">
+      <c r="AA23">
         <v>0.5</v>
       </c>
-      <c r="AB22">
+      <c r="AB23">
         <v>1.11</v>
       </c>
-      <c r="AC22">
+      <c r="AC23">
         <v>1.18</v>
       </c>
-      <c r="AD22">
+      <c r="AD23">
         <v>2.29</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -166,21 +166,21 @@
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>Italy Serie B</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
-    <t>Italy Serie B</t>
+    <t>Italy Serie A</t>
   </si>
   <si>
     <t>France Ligue 2</t>
   </si>
   <si>
-    <t>Italy Serie A</t>
-  </si>
-  <si>
     <t>England Premier League</t>
   </si>
   <si>
@@ -232,42 +232,42 @@
     <t>CF Os Belenenses</t>
   </si>
   <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
     <t>PSV II</t>
   </si>
   <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Emmen</t>
+    <t>SD Amorebieta</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Masr</t>
   </si>
   <si>
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>SD Amorebieta</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Masr</t>
+    <t>Lazio</t>
   </si>
   <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -298,40 +298,40 @@
     <t>Leixões</t>
   </si>
   <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>AZ II</t>
   </si>
   <si>
     <t>Groningen</t>
   </si>
   <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Oss</t>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
   </si>
   <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Leganés</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Al Masry</t>
+    <t>Udinese</t>
   </si>
   <si>
     <t>Laval</t>
-  </si>
-  <si>
-    <t>Udinese</t>
   </si>
   <si>
     <t>Newcastle United</t>
@@ -871,13 +871,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="M2">
         <v>1.52</v>
@@ -898,10 +898,10 @@
         <v>2.6</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -1002,13 +1002,13 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>3.28</v>
+        <v>3.95</v>
       </c>
       <c r="K3">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1029,7 +1029,7 @@
         <v>3.5</v>
       </c>
       <c r="S3">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="T3">
         <v>1.97</v>
@@ -1133,13 +1133,13 @@
         <v>2.63</v>
       </c>
       <c r="J4">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1160,10 +1160,10 @@
         <v>3.65</v>
       </c>
       <c r="S4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="U4">
         <v>1.75</v>
@@ -1264,13 +1264,13 @@
         <v>4.4</v>
       </c>
       <c r="J5">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="L5">
-        <v>3.67</v>
+        <v>3.88</v>
       </c>
       <c r="M5">
         <v>1.48</v>
@@ -1291,10 +1291,10 @@
         <v>2.92</v>
       </c>
       <c r="S5">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="T5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1395,13 +1395,13 @@
         <v>4.47</v>
       </c>
       <c r="J6">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>3.72</v>
       </c>
       <c r="M6">
         <v>1.46</v>
@@ -1422,10 +1422,10 @@
         <v>2.45</v>
       </c>
       <c r="S6">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T6">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U6">
         <v>1.92</v>
@@ -1526,13 +1526,13 @@
         <v>3.12</v>
       </c>
       <c r="J7">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L7">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="M7">
         <v>1.5</v>
@@ -1553,10 +1553,10 @@
         <v>2.62</v>
       </c>
       <c r="S7">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1648,115 +1648,115 @@
         <v>94</v>
       </c>
       <c r="G8">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I8">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="K8">
-        <v>3.58</v>
+        <v>5.38</v>
       </c>
       <c r="L8">
-        <v>3.34</v>
+        <v>8.01</v>
       </c>
       <c r="M8">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
         <v>1.04</v>
       </c>
       <c r="P8">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q8">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R8">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="S8">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="T8">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="U8">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="X8">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="Y8">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="Z8">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AB8">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="AC8">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AD8">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AF8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG8">
-        <v>2.65</v>
+        <v>4.55</v>
       </c>
       <c r="AH8">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AI8">
-        <v>3.64</v>
+        <v>4.3</v>
       </c>
       <c r="AJ8">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AK8">
-        <v>2.54</v>
+        <v>3.04</v>
       </c>
       <c r="AL8">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AM8">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="AN8">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AO8">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AP8">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AQ8">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1779,115 +1779,115 @@
         <v>95</v>
       </c>
       <c r="G9">
+        <v>2.2</v>
+      </c>
+      <c r="H9">
+        <v>2.2</v>
+      </c>
+      <c r="I9">
         <v>4.75</v>
       </c>
-      <c r="H9">
-        <v>2.6</v>
-      </c>
-      <c r="I9">
-        <v>2.05</v>
-      </c>
       <c r="J9">
-        <v>5.12</v>
+        <v>1.68</v>
       </c>
       <c r="K9">
-        <v>4.54</v>
+        <v>4.02</v>
       </c>
       <c r="L9">
-        <v>1.58</v>
+        <v>4.88</v>
       </c>
       <c r="M9">
+        <v>1.34</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1.01</v>
+      </c>
+      <c r="P9">
+        <v>10.5</v>
+      </c>
+      <c r="Q9">
+        <v>1.2</v>
+      </c>
+      <c r="R9">
+        <v>3.9</v>
+      </c>
+      <c r="S9">
+        <v>1.7</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.73</v>
+      </c>
+      <c r="V9">
+        <v>1.95</v>
+      </c>
+      <c r="W9">
+        <v>1.18</v>
+      </c>
+      <c r="X9">
         <v>1.25</v>
       </c>
-      <c r="N9">
-        <v>3.75</v>
-      </c>
-      <c r="O9">
-        <v>1.03</v>
-      </c>
-      <c r="P9">
-        <v>17.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.13</v>
-      </c>
-      <c r="R9">
-        <v>4.8</v>
-      </c>
-      <c r="S9">
-        <v>1.27</v>
-      </c>
-      <c r="T9">
-        <v>2.22</v>
-      </c>
-      <c r="U9">
-        <v>1.53</v>
-      </c>
-      <c r="V9">
-        <v>2.38</v>
-      </c>
-      <c r="W9">
-        <v>2.46</v>
-      </c>
-      <c r="X9">
-        <v>1.22</v>
-      </c>
       <c r="Y9">
-        <v>1.18</v>
+        <v>2.15</v>
       </c>
       <c r="Z9">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AA9">
-        <v>1.54</v>
+        <v>0.4</v>
       </c>
       <c r="AB9">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AD9">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="AE9">
-        <v>3.32</v>
+        <v>1.48</v>
       </c>
       <c r="AF9">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG9">
-        <v>1.42</v>
+        <v>3.08</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ9">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AK9">
-        <v>3.04</v>
+        <v>2.67</v>
       </c>
       <c r="AL9">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AM9">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="AN9">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AO9">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1910,22 +1910,22 @@
         <v>96</v>
       </c>
       <c r="G10">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="H10">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="I10">
-        <v>5.19</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="K10">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
       <c r="L10">
-        <v>5.2</v>
+        <v>5.51</v>
       </c>
       <c r="M10">
         <v>1.2</v>
@@ -1934,91 +1934,91 @@
         <v>4.33</v>
       </c>
       <c r="O10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="R10">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="S10">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="T10">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="U10">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V10">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="W10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X10">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="Y10">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Z10">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>0.53</v>
+        <v>1.43</v>
       </c>
       <c r="AB10">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AC10">
         <v>1.46</v>
       </c>
       <c r="AD10">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="AE10">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AF10">
         <v>10.25</v>
       </c>
       <c r="AG10">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ10">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AK10">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AL10">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AM10">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AN10">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AO10">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AQ10">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2041,115 +2041,115 @@
         <v>97</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.87</v>
       </c>
       <c r="I11">
-        <v>4.75</v>
+        <v>5.19</v>
       </c>
       <c r="J11">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="K11">
-        <v>4.02</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
-        <v>4.88</v>
+        <v>5.2</v>
       </c>
       <c r="M11">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="O11">
         <v>1.01</v>
       </c>
       <c r="P11">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Q11">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="R11">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="S11">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="U11">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="W11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X11">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Y11">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Z11">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="AB11">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AC11">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AD11">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="AE11">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AF11">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG11">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="AH11">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AI11">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AJ11">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AK11">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
       <c r="AL11">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AM11">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
       <c r="AN11">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="AO11">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AP11">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2172,115 +2172,115 @@
         <v>98</v>
       </c>
       <c r="G12">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="H12">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="K12">
-        <v>4.97</v>
+        <v>3.58</v>
       </c>
       <c r="L12">
-        <v>5.51</v>
+        <v>3.34</v>
       </c>
       <c r="M12">
+        <v>1.33</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>1.04</v>
+      </c>
+      <c r="P12">
+        <v>8.5</v>
+      </c>
+      <c r="Q12">
         <v>1.2</v>
-      </c>
-      <c r="N12">
-        <v>4.33</v>
-      </c>
-      <c r="O12">
-        <v>1.02</v>
-      </c>
-      <c r="P12">
-        <v>4.2</v>
-      </c>
-      <c r="Q12">
-        <v>1.08</v>
       </c>
       <c r="R12">
         <v>3.9</v>
       </c>
       <c r="S12">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="T12">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="U12">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="V12">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="W12">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="X12">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="Y12">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1.58</v>
+      </c>
+      <c r="AC12">
+        <v>1.28</v>
+      </c>
+      <c r="AD12">
+        <v>2.86</v>
+      </c>
+      <c r="AE12">
+        <v>1.62</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>2.65</v>
+      </c>
+      <c r="AH12">
+        <v>1.22</v>
+      </c>
+      <c r="AI12">
+        <v>3.64</v>
+      </c>
+      <c r="AJ12">
         <v>1.43</v>
       </c>
-      <c r="AB12">
-        <v>1.71</v>
-      </c>
-      <c r="AC12">
-        <v>1.46</v>
-      </c>
-      <c r="AD12">
-        <v>3.17</v>
-      </c>
-      <c r="AE12">
-        <v>1.38</v>
-      </c>
-      <c r="AF12">
-        <v>10.25</v>
-      </c>
-      <c r="AG12">
-        <v>3.54</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>1.29</v>
-      </c>
       <c r="AK12">
-        <v>3.14</v>
+        <v>2.54</v>
       </c>
       <c r="AL12">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="AM12">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="AN12">
-        <v>1.89</v>
+        <v>2.23</v>
       </c>
       <c r="AO12">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="AP12">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2303,91 +2303,91 @@
         <v>99</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="J13">
-        <v>1.35</v>
+        <v>5.12</v>
       </c>
       <c r="K13">
-        <v>5.38</v>
+        <v>4.54</v>
       </c>
       <c r="L13">
-        <v>8.01</v>
+        <v>1.58</v>
       </c>
       <c r="M13">
+        <v>1.25</v>
+      </c>
+      <c r="N13">
+        <v>3.75</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>17.5</v>
+      </c>
+      <c r="Q13">
+        <v>1.13</v>
+      </c>
+      <c r="R13">
+        <v>4.8</v>
+      </c>
+      <c r="S13">
         <v>1.27</v>
       </c>
-      <c r="N13">
-        <v>3.4</v>
-      </c>
-      <c r="O13">
-        <v>1.04</v>
-      </c>
-      <c r="P13">
-        <v>13.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.17</v>
-      </c>
-      <c r="R13">
-        <v>3.15</v>
-      </c>
-      <c r="S13">
-        <v>1.49</v>
-      </c>
       <c r="T13">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V13">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="W13">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="X13">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="Y13">
-        <v>3.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z13">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="AA13">
-        <v>0.53</v>
+        <v>1.54</v>
       </c>
       <c r="AB13">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AC13">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="AD13">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="AE13">
-        <v>1.26</v>
+        <v>3.32</v>
       </c>
       <c r="AF13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG13">
-        <v>4.55</v>
+        <v>1.42</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ13">
         <v>1.31</v>
@@ -2402,16 +2402,16 @@
         <v>2.23</v>
       </c>
       <c r="AN13">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AO13">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AP13">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2425,7 +2425,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
@@ -2434,115 +2434,115 @@
         <v>100</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="I14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
-        <v>2.62</v>
+        <v>3.34</v>
       </c>
       <c r="K14">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="L14">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="M14">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N14">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
         <v>1.11</v>
       </c>
       <c r="P14">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q14">
+        <v>1.57</v>
+      </c>
+      <c r="R14">
+        <v>2.25</v>
+      </c>
+      <c r="S14">
+        <v>2.8</v>
+      </c>
+      <c r="T14">
+        <v>1.37</v>
+      </c>
+      <c r="U14">
+        <v>2.25</v>
+      </c>
+      <c r="V14">
+        <v>1.57</v>
+      </c>
+      <c r="W14">
+        <v>1.52</v>
+      </c>
+      <c r="X14">
+        <v>1.42</v>
+      </c>
+      <c r="Y14">
+        <v>1.25</v>
+      </c>
+      <c r="Z14">
+        <v>1.13</v>
+      </c>
+      <c r="AA14">
         <v>1.5</v>
       </c>
-      <c r="R14">
-        <v>2.4</v>
-      </c>
-      <c r="S14">
-        <v>2.55</v>
-      </c>
-      <c r="T14">
-        <v>1.45</v>
-      </c>
-      <c r="U14">
-        <v>2.2</v>
-      </c>
-      <c r="V14">
-        <v>1.62</v>
-      </c>
-      <c r="W14">
-        <v>1.4</v>
-      </c>
-      <c r="X14">
-        <v>1.44</v>
-      </c>
-      <c r="Y14">
-        <v>1.44</v>
-      </c>
-      <c r="Z14">
-        <v>1.86</v>
-      </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
       <c r="AB14">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="AC14">
-        <v>1.45</v>
+        <v>0.99</v>
       </c>
       <c r="AD14">
+        <v>2.11</v>
+      </c>
+      <c r="AE14">
+        <v>2.02</v>
+      </c>
+      <c r="AF14">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>2.09</v>
+      </c>
+      <c r="AH14">
+        <v>1.39</v>
+      </c>
+      <c r="AI14">
+        <v>2.76</v>
+      </c>
+      <c r="AJ14">
+        <v>1.73</v>
+      </c>
+      <c r="AK14">
+        <v>2.04</v>
+      </c>
+      <c r="AL14">
+        <v>2.19</v>
+      </c>
+      <c r="AM14">
+        <v>1.6</v>
+      </c>
+      <c r="AN14">
         <v>2.93</v>
       </c>
-      <c r="AE14">
-        <v>2.12</v>
-      </c>
-      <c r="AF14">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG14">
-        <v>1.91</v>
-      </c>
-      <c r="AH14">
+      <c r="AO14">
         <v>1.33</v>
       </c>
-      <c r="AI14">
-        <v>2.93</v>
-      </c>
-      <c r="AJ14">
-        <v>1.67</v>
-      </c>
-      <c r="AK14">
-        <v>2.17</v>
-      </c>
-      <c r="AL14">
-        <v>2.08</v>
-      </c>
-      <c r="AM14">
-        <v>1.72</v>
-      </c>
-      <c r="AN14">
-        <v>2.71</v>
-      </c>
-      <c r="AO14">
-        <v>1.38</v>
-      </c>
       <c r="AP14">
-        <v>3.74</v>
+        <v>4.2</v>
       </c>
       <c r="AQ14">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2556,7 +2556,7 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -2565,94 +2565,94 @@
         <v>101</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I15">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="J15">
-        <v>3.11</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>2.9</v>
       </c>
       <c r="L15">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O15">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P15">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="Q15">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R15">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="T15">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="U15">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V15">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W15">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="X15">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="Z15">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AB15">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="AC15">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AD15">
-        <v>2.11</v>
+        <v>2.62</v>
       </c>
       <c r="AE15">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="AF15">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG15">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="AH15">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AI15">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="AJ15">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AK15">
         <v>2.04</v>
@@ -2661,19 +2661,19 @@
         <v>2.19</v>
       </c>
       <c r="AM15">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AN15">
         <v>2.93</v>
       </c>
       <c r="AO15">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AP15">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2687,7 +2687,7 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
@@ -2696,120 +2696,120 @@
         <v>102</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J16">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="K16">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="L16">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="N16">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P16">
-        <v>6.2</v>
+        <v>2.72</v>
       </c>
       <c r="Q16">
         <v>1.42</v>
       </c>
       <c r="R16">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="S16">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T16">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U16">
+        <v>1.91</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>1.57</v>
+      </c>
+      <c r="X16">
+        <v>1.43</v>
+      </c>
+      <c r="Y16">
+        <v>1.4</v>
+      </c>
+      <c r="Z16">
+        <v>1.5</v>
+      </c>
+      <c r="AA16">
+        <v>1.67</v>
+      </c>
+      <c r="AB16">
+        <v>1.91</v>
+      </c>
+      <c r="AC16">
+        <v>1.1</v>
+      </c>
+      <c r="AD16">
+        <v>3.01</v>
+      </c>
+      <c r="AE16">
+        <v>1.98</v>
+      </c>
+      <c r="AF16">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG16">
+        <v>2.04</v>
+      </c>
+      <c r="AH16">
+        <v>1.34</v>
+      </c>
+      <c r="AI16">
+        <v>2.88</v>
+      </c>
+      <c r="AJ16">
+        <v>1.68</v>
+      </c>
+      <c r="AK16">
+        <v>2.14</v>
+      </c>
+      <c r="AL16">
         <v>2.1</v>
       </c>
-      <c r="V16">
-        <v>1.67</v>
-      </c>
-      <c r="W16">
-        <v>1.28</v>
-      </c>
-      <c r="X16">
-        <v>1.3</v>
-      </c>
-      <c r="Y16">
-        <v>1.68</v>
-      </c>
-      <c r="Z16">
-        <v>1.07</v>
-      </c>
-      <c r="AA16">
-        <v>0.93</v>
-      </c>
-      <c r="AB16">
-        <v>1.47</v>
-      </c>
-      <c r="AC16">
-        <v>1.15</v>
-      </c>
-      <c r="AD16">
-        <v>2.62</v>
-      </c>
-      <c r="AE16">
-        <v>1.89</v>
-      </c>
-      <c r="AF16">
-        <v>8.5</v>
-      </c>
-      <c r="AG16">
-        <v>2.28</v>
-      </c>
-      <c r="AH16">
+      <c r="AM16">
+        <v>1.71</v>
+      </c>
+      <c r="AN16">
+        <v>2.75</v>
+      </c>
+      <c r="AO16">
         <v>1.37</v>
       </c>
-      <c r="AI16">
-        <v>2.75</v>
-      </c>
-      <c r="AJ16">
-        <v>1.69</v>
-      </c>
-      <c r="AK16">
-        <v>2.04</v>
-      </c>
-      <c r="AL16">
-        <v>2.19</v>
-      </c>
-      <c r="AM16">
-        <v>1.63</v>
-      </c>
-      <c r="AN16">
-        <v>2.93</v>
-      </c>
-      <c r="AO16">
-        <v>1.35</v>
-      </c>
       <c r="AP16">
-        <v>4.15</v>
+        <v>3.86</v>
       </c>
       <c r="AQ16">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>45362</v>
@@ -2827,115 +2827,115 @@
         <v>103</v>
       </c>
       <c r="G17">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="H17">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="I17">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="J17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L17">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="M17">
+        <v>1.57</v>
+      </c>
+      <c r="N17">
+        <v>2.23</v>
+      </c>
+      <c r="O17">
+        <v>1.11</v>
+      </c>
+      <c r="P17">
+        <v>5.5</v>
+      </c>
+      <c r="Q17">
+        <v>1.5</v>
+      </c>
+      <c r="R17">
+        <v>2.4</v>
+      </c>
+      <c r="S17">
+        <v>2.75</v>
+      </c>
+      <c r="T17">
+        <v>1.4</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>1.57</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>1.44</v>
+      </c>
+      <c r="Y17">
+        <v>1.44</v>
+      </c>
+      <c r="Z17">
+        <v>1.86</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
         <v>1.48</v>
       </c>
-      <c r="N17">
-        <v>2.6</v>
-      </c>
-      <c r="O17">
-        <v>1.09</v>
-      </c>
-      <c r="P17">
-        <v>6.5</v>
-      </c>
-      <c r="Q17">
-        <v>1.42</v>
-      </c>
-      <c r="R17">
-        <v>2.7</v>
-      </c>
-      <c r="S17">
-        <v>2.24</v>
-      </c>
-      <c r="T17">
-        <v>1.58</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.8</v>
-      </c>
-      <c r="W17">
-        <v>1.44</v>
-      </c>
-      <c r="X17">
+      <c r="AC17">
+        <v>1.45</v>
+      </c>
+      <c r="AD17">
+        <v>2.93</v>
+      </c>
+      <c r="AE17">
+        <v>2.09</v>
+      </c>
+      <c r="AF17">
+        <v>8.1</v>
+      </c>
+      <c r="AG17">
+        <v>1.94</v>
+      </c>
+      <c r="AH17">
+        <v>1.33</v>
+      </c>
+      <c r="AI17">
+        <v>2.93</v>
+      </c>
+      <c r="AJ17">
+        <v>1.67</v>
+      </c>
+      <c r="AK17">
+        <v>2.17</v>
+      </c>
+      <c r="AL17">
+        <v>2.08</v>
+      </c>
+      <c r="AM17">
+        <v>1.72</v>
+      </c>
+      <c r="AN17">
+        <v>2.71</v>
+      </c>
+      <c r="AO17">
         <v>1.38</v>
       </c>
-      <c r="Y17">
-        <v>1.48</v>
-      </c>
-      <c r="Z17">
-        <v>1.5</v>
-      </c>
-      <c r="AA17">
-        <v>1.67</v>
-      </c>
-      <c r="AB17">
-        <v>1.91</v>
-      </c>
-      <c r="AC17">
-        <v>1.1</v>
-      </c>
-      <c r="AD17">
-        <v>3.01</v>
-      </c>
-      <c r="AE17">
-        <v>1.98</v>
-      </c>
-      <c r="AF17">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG17">
-        <v>2.04</v>
-      </c>
-      <c r="AH17">
-        <v>1.34</v>
-      </c>
-      <c r="AI17">
-        <v>2.88</v>
-      </c>
-      <c r="AJ17">
-        <v>1.68</v>
-      </c>
-      <c r="AK17">
-        <v>2.14</v>
-      </c>
-      <c r="AL17">
-        <v>2.1</v>
-      </c>
-      <c r="AM17">
-        <v>1.71</v>
-      </c>
-      <c r="AN17">
-        <v>2.75</v>
-      </c>
-      <c r="AO17">
-        <v>1.37</v>
-      </c>
       <c r="AP17">
-        <v>3.86</v>
+        <v>3.74</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2958,115 +2958,115 @@
         <v>104</v>
       </c>
       <c r="G18">
-        <v>3.12</v>
+        <v>2.6</v>
       </c>
       <c r="H18">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="I18">
-        <v>4.19</v>
+        <v>4.75</v>
       </c>
       <c r="J18">
-        <v>2.13</v>
+        <v>1.59</v>
       </c>
       <c r="K18">
-        <v>2.91</v>
+        <v>3.81</v>
       </c>
       <c r="L18">
-        <v>3.15</v>
+        <v>5.56</v>
       </c>
       <c r="M18">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="N18">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="O18">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P18">
-        <v>6.89</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q18">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="R18">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T18">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U18">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W18">
+        <v>1.27</v>
+      </c>
+      <c r="X18">
+        <v>1.31</v>
+      </c>
+      <c r="Y18">
+        <v>1.8</v>
+      </c>
+      <c r="Z18">
+        <v>1.62</v>
+      </c>
+      <c r="AA18">
+        <v>0.92</v>
+      </c>
+      <c r="AB18">
+        <v>1.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.08</v>
+      </c>
+      <c r="AD18">
+        <v>2.28</v>
+      </c>
+      <c r="AE18">
+        <v>1.55</v>
+      </c>
+      <c r="AF18">
+        <v>8</v>
+      </c>
+      <c r="AG18">
+        <v>2.8</v>
+      </c>
+      <c r="AH18">
         <v>1.33</v>
       </c>
-      <c r="X18">
-        <v>1.36</v>
-      </c>
-      <c r="Y18">
-        <v>1.64</v>
-      </c>
-      <c r="Z18">
-        <v>1.77</v>
-      </c>
-      <c r="AA18">
-        <v>1.92</v>
-      </c>
-      <c r="AB18">
-        <v>1.64</v>
-      </c>
-      <c r="AC18">
-        <v>1.24</v>
-      </c>
-      <c r="AD18">
-        <v>2.88</v>
-      </c>
-      <c r="AE18">
-        <v>1.82</v>
-      </c>
-      <c r="AF18">
-        <v>7.5</v>
-      </c>
-      <c r="AG18">
-        <v>2.34</v>
-      </c>
-      <c r="AH18">
-        <v>1.36</v>
-      </c>
       <c r="AI18">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AJ18">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AK18">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AL18">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AM18">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AN18">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AO18">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AP18">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="AQ18">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3089,115 +3089,115 @@
         <v>105</v>
       </c>
       <c r="G19">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="H19">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="I19">
-        <v>4.75</v>
+        <v>4.19</v>
       </c>
       <c r="J19">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="L19">
-        <v>4.43</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="N19">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="O19">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P19">
-        <v>8.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="Q19">
+        <v>1.57</v>
+      </c>
+      <c r="R19">
+        <v>2.4</v>
+      </c>
+      <c r="S19">
+        <v>2.4</v>
+      </c>
+      <c r="T19">
+        <v>1.5</v>
+      </c>
+      <c r="U19">
+        <v>2.06</v>
+      </c>
+      <c r="V19">
+        <v>1.72</v>
+      </c>
+      <c r="W19">
+        <v>1.33</v>
+      </c>
+      <c r="X19">
         <v>1.36</v>
       </c>
-      <c r="R19">
+      <c r="Y19">
+        <v>1.64</v>
+      </c>
+      <c r="Z19">
+        <v>1.77</v>
+      </c>
+      <c r="AA19">
+        <v>1.92</v>
+      </c>
+      <c r="AB19">
+        <v>1.64</v>
+      </c>
+      <c r="AC19">
+        <v>1.24</v>
+      </c>
+      <c r="AD19">
         <v>2.88</v>
       </c>
-      <c r="S19">
-        <v>2.16</v>
-      </c>
-      <c r="T19">
-        <v>1.65</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>1.75</v>
-      </c>
-      <c r="W19">
-        <v>1.27</v>
-      </c>
-      <c r="X19">
-        <v>1.31</v>
-      </c>
-      <c r="Y19">
-        <v>1.8</v>
-      </c>
-      <c r="Z19">
-        <v>1.62</v>
-      </c>
-      <c r="AA19">
-        <v>0.92</v>
-      </c>
-      <c r="AB19">
-        <v>1.2</v>
-      </c>
-      <c r="AC19">
-        <v>1.08</v>
-      </c>
-      <c r="AD19">
-        <v>2.28</v>
-      </c>
       <c r="AE19">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AF19">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG19">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="AH19">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI19">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AJ19">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AK19">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AL19">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AM19">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AN19">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="AO19">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AP19">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3229,13 +3229,13 @@
         <v>3.75</v>
       </c>
       <c r="J20">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="K20">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>3.53</v>
+        <v>4.06</v>
       </c>
       <c r="M20">
         <v>1.25</v>
@@ -3259,7 +3259,7 @@
         <v>1.44</v>
       </c>
       <c r="T20">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="U20">
         <v>1.44</v>
@@ -3360,13 +3360,13 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="K21">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="L21">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="M21">
         <v>1.4</v>
@@ -3387,10 +3387,10 @@
         <v>3.4</v>
       </c>
       <c r="S21">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T21">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="U21">
         <v>1.75</v>
@@ -3491,13 +3491,13 @@
         <v>6.77</v>
       </c>
       <c r="J22">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L22">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="M22">
         <v>1.4</v>
@@ -3518,10 +3518,10 @@
         <v>3.25</v>
       </c>
       <c r="S22">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T22">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
         <v>2.1</v>
@@ -3622,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="K23">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
         <v>0</v>
